--- a/Excel Files/Individual States/Georgia - Golf Digest Top Courses in each State.xlsx
+++ b/Excel Files/Individual States/Georgia - Golf Digest Top Courses in each State.xlsx
@@ -1376,10 +1376,10 @@
         <v>84</v>
       </c>
       <c r="L21">
-        <v>34.08759365</v>
+        <v>34.0892501</v>
       </c>
       <c r="M21">
-        <v>-84.3516838</v>
+        <v>-84.34283275</v>
       </c>
     </row>
     <row r="22" spans="1:13">
